--- a/sym.xlsx
+++ b/sym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\sym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{727D5A83-801F-47BE-85DE-4095FD1971E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565ECDC-D2CF-4C1E-A4EE-B497009C123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>pismo</t>
   </si>
@@ -54,9 +54,6 @@
     <t>RPC modelowanie</t>
   </si>
   <si>
-    <t>CPW</t>
-  </si>
-  <si>
     <t>1 emisja</t>
   </si>
   <si>
@@ -352,12 +349,18 @@
   </si>
   <si>
     <t>OLIWIA</t>
+  </si>
+  <si>
+    <t>CPW do mediaplanu (VII.2022 - VI 2023)</t>
+  </si>
+  <si>
+    <t>CPW po zmianie segmentacji (VII 2022 - VI 2023)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -460,7 +463,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,16 +774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD46"/>
+      <selection activeCell="F14" sqref="A1:AO46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="32" max="41" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,75 +816,108 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>19</v>
+      <c r="AF1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="5">
         <v>0.35977246543778807</v>
@@ -903,73 +943,106 @@
       <c r="J2" s="9">
         <v>0.77775275332289784</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="2">
+        <v>0.55673525229465892</v>
+      </c>
+      <c r="L2" s="10">
         <v>0.7969034608378871</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>1.0382513661202191</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>1.115664845173042</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>1.252276867030965</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>1.2659380692167581</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>1.252276867030965</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>1.297814207650273</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>1.3069216757741351</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>1.3160291438979961</v>
       </c>
-      <c r="T2" s="10">
+      <c r="U2" s="10">
         <v>1.3661202185792349</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>0.53262639999999994</v>
       </c>
-      <c r="V2" s="11">
+      <c r="W2" s="11">
         <v>0.69035590000000002</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>0.76991880000000001</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>0.81641900000000001</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>0.84594709999999995</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>0.86583489999999996</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>0.87985900000000006</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>0.89012399999999992</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>0.89787419999999996</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>0.90388029999999997</v>
       </c>
+      <c r="AF2" s="10">
+        <v>0.51001821493624777</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>0.71948998178506374</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>0.73770491803278693</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>0.82877959927140266</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>0.86976320582877964</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>0.9061930783242258</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>0.9061930783242258</v>
+      </c>
+      <c r="AM2" s="10">
+        <v>0.94262295081967218</v>
+      </c>
+      <c r="AN2" s="10">
+        <v>0.91985428051001816</v>
+      </c>
+      <c r="AO2" s="10">
+        <v>0.95173041894353361</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="5">
         <v>0.32277997855567875</v>
@@ -995,73 +1068,106 @@
       <c r="J3" s="9">
         <v>0.62886867574397964</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="2">
+        <v>0.51426869961762633</v>
+      </c>
+      <c r="L3" s="10">
         <v>0.64207650273224037</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>0.74225865209471775</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>0.80601092896174853</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>0.86976320582877964</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>0.86520947176684881</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>0.8606557377049181</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0.9061930783242258</v>
       </c>
       <c r="R3" s="10">
         <v>0.9061930783242258</v>
       </c>
       <c r="S3" s="10">
+        <v>0.9061930783242258</v>
+      </c>
+      <c r="T3" s="10">
         <v>0.91985428051001816</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <v>0.93351548269581064</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>0.39479759999999997</v>
       </c>
-      <c r="V3" s="11">
+      <c r="W3" s="11">
         <v>0.51036029999999999</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>0.57130780000000003</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>0.60827779999999998</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>0.63241939999999996</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AA3" s="3">
         <v>0.64897840000000007</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>0.66076820000000003</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>0.66942219999999997</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>0.67594120000000002</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>0.68096349999999994</v>
       </c>
+      <c r="AF3" s="10">
+        <v>0.49635701275045541</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>0.63752276867030966</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>0.66029143897996356</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>0.7103825136612022</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.70582877959927148</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>0.7331511839708561</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>0.7331511839708561</v>
+      </c>
+      <c r="AM3" s="10">
+        <v>0.75591985428051001</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>0.76958105646630237</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>0.77868852459016402</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="5">
         <v>0.55079400193933814</v>
@@ -1087,73 +1193,106 @@
       <c r="J4" s="9">
         <v>1.4503423077829225</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="2">
+        <v>2.0850489466177029</v>
+      </c>
+      <c r="L4" s="10">
         <v>1.302367941712204</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>1.8397085610200361</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>2.094717668488161</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>2.431693989071039</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>2.659380692167578</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>2.741347905282332</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>2.8233151183970859</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>2.85063752276867</v>
-      </c>
-      <c r="S4" s="10">
-        <v>2.932604735883424</v>
       </c>
       <c r="T4" s="10">
         <v>2.932604735883424</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="10">
+        <v>2.932604735883424</v>
+      </c>
+      <c r="V4" s="3">
         <v>2.2299802999999998</v>
       </c>
-      <c r="V4" s="11">
+      <c r="W4" s="11">
         <v>2.9862633000000001</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>3.3840368000000001</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>3.6265067999999996</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>3.7864922000000001</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <v>3.8977634999999995</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>3.9782673999999996</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>4.0383873000000001</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>4.0844946999999996</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>4.1206757999999999</v>
       </c>
+      <c r="AF4" s="10">
+        <v>1.8442622950819669</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>2.622950819672131</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>3.119307832422586</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>3.5200364298724951</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>3.8160291438979961</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>3.9207650273224051</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>4.057377049180328</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>4.1347905282331512</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>4.2167577413479052</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>4.2531876138433518</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>0.48314913591147751</v>
@@ -1179,73 +1318,106 @@
       <c r="J5" s="9">
         <v>0.7073672500378656</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="2">
+        <v>0.60261838080482377</v>
+      </c>
+      <c r="L5" s="10">
         <v>0.56466302367941712</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>0.74225865209471775</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>0.85154826958105645</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.96539162112932608</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>0.97905282331511834</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>0.98816029143897999</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.0564663023679419</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>1.0519125683060111</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>1.074681238615665</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>1.083788706739526</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>0.40296850000000001</v>
       </c>
-      <c r="V5" s="11">
+      <c r="W5" s="11">
         <v>0.53345180000000003</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>0.59760950000000002</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>0.63514999999999999</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>0.65944840000000005</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>0.67625439999999992</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>0.68844020000000006</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3">
         <v>0.6976</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>0.70468900000000001</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AE5" s="3">
         <v>0.71031260000000007</v>
       </c>
+      <c r="AF5" s="10">
+        <v>0.47358834244080139</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0.61020036429872493</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0.69672131147540983</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>0.74681238615664847</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0.82422586520947172</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0.81511839708561018</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0.86976320582877964</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0.89253187613843354</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0.90163934426229519</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0.90163934426229519</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>0.41598626360745794</v>
@@ -1271,73 +1443,106 @@
       <c r="J6" s="9">
         <v>0.44930708149840715</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="2">
+        <v>0.37267137653714089</v>
+      </c>
+      <c r="L6" s="10">
         <v>0.53278688524590156</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>0.67395264116575593</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>0.82877959927140266</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>0.9061930783242258</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>0.90163934426229519</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>0.98816029143897999</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>1.0245901639344259</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>0.98816029143897999</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>1.042805100182149</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <v>1.020036429872496</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>0.39946499999999996</v>
       </c>
-      <c r="V6" s="11">
+      <c r="W6" s="11">
         <v>0.57195689999999999</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>0.66797090000000003</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <v>0.72832600000000003</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>0.76951709999999995</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <v>0.79931320000000006</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>0.82179869999999999</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AC6" s="3">
         <v>0.83931529999999999</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>0.85330189999999995</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>0.86469240000000003</v>
       </c>
+      <c r="AF6" s="10">
+        <v>0.3551912568306011</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0.56010928961748641</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0.6466302367941712</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0.69672131147540983</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.80601092896174853</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0.81056466302367947</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0.79234972677595628</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0.82877959927140266</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0.85154826958105645</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>0.85154826958105645</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>0.80039070925019773</v>
@@ -1363,73 +1568,106 @@
       <c r="J7" s="9">
         <v>0.40266888671404721</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="2">
+        <v>0.34025899830385881</v>
+      </c>
+      <c r="L7" s="10">
         <v>0.3870673952641166</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>0.53278688524590156</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>0.80601092896174853</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>0.9061930783242258</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>0.98360655737704927</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>1.115664845173042</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>1.1338797814207651</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>1.1794171220400731</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>1.252276867030965</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>1.243169398907104</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>0.39433230000000002</v>
       </c>
-      <c r="V7" s="11">
+      <c r="W7" s="11">
         <v>0.56376780000000004</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>0.66131530000000005</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>0.72413130000000003</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>0.76732909999999999</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AA7" s="3">
         <v>0.79850300000000007</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>0.82190410000000003</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AC7" s="3">
         <v>0.84006610000000004</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>0.85456690000000002</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>0.86642439999999998</v>
       </c>
+      <c r="AF7" s="10">
+        <v>0.30965391621129318</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0.54189435336976322</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0.71493624772313291</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0.79234972677595628</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0.8606557377049181</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0.98816029143897999</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0.96539162112932608</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>1.0519125683060111</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>1.061020036429873</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>1.1065573770491799</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C8" s="5">
         <v>0.72090869410299729</v>
@@ -1455,73 +1693,106 @@
       <c r="J8" s="9">
         <v>0.37251534696053951</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="2">
+        <v>0.21384274429656353</v>
+      </c>
+      <c r="L8" s="10">
         <v>0.37340619307832418</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>0.6056466302367941</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>0.77868852459016402</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>0.84699453551912562</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>0.91530054644808745</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>1.033697632058288</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>1.0655737704918029</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>1.0974499089253189</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>1.10200364298725</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>1.115664845173042</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>0.32732870000000003</v>
       </c>
-      <c r="V8" s="11">
+      <c r="W8" s="11">
         <v>0.53863549999999993</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>0.68816600000000006</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>0.80004390000000003</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>0.88717580000000007</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>0.9571115</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1.0145632</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1.0626306000000001</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1.1034444999999999</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1.1385239999999999</v>
       </c>
+      <c r="AF8" s="10">
+        <v>0.19581056466302371</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0.33242258652094719</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0.44626593806921683</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>0.49635701275045541</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0.56010928961748641</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>0.61020036429872493</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>0.63296903460837894</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0.63752276867030966</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>0.61020036429872493</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="5">
         <v>0.33289824309751814</v>
@@ -1547,73 +1818,106 @@
       <c r="J9" s="9">
         <v>1.2821395122397694</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="2">
+        <v>1.0935557507578619</v>
+      </c>
+      <c r="L9" s="10">
         <v>1.2249544626593809</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>1.384335154826958</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>1.539162112932605</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>1.5755919854280509</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <v>1.680327868852459</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>1.6757741347905279</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>1.7167577413479049</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>1.725865209471767</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>1.7440801457194901</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <v>1.7896174863387979</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1.0686542000000001</v>
       </c>
-      <c r="V9" s="11">
+      <c r="W9" s="11">
         <v>1.3312295999999999</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1.4655168999999999</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1.5480472999999999</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1.6037006999999999</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1.6435603999999999</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1.6734019</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1.6965317</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1.7149679</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1.7300025000000001</v>
       </c>
+      <c r="AF9" s="10">
+        <v>0.95173041894353361</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1.170309653916211</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>1.284153005464481</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>1.3934426229508201</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>1.39799635701275</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>1.4435336976320581</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>1.4845173041894359</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>1.4845173041894359</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>1.498178506375228</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>1.507285974499089</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C10" s="5">
         <v>0.44161422468077544</v>
@@ -1639,73 +1943,106 @@
       <c r="J10" s="9">
         <v>1.3141369958136342</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="2">
+        <v>1.1590767208314161</v>
+      </c>
+      <c r="L10" s="10">
         <v>1.1520947176684879</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>1.566484517304189</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>1.9307832422586519</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>2.1174863387978138</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <v>2.2267759562841531</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>2.2814207650273222</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>2.4134790528233152</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>2.404371584699454</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>2.445355191256831</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>2.4954462659380692</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>0.95652629999999994</v>
       </c>
-      <c r="V10" s="11">
+      <c r="W10" s="11">
         <v>1.299466</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1.4910272</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1.611243</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1.6919263</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1.7487409999999999</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1.790262</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1.8215273999999999</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1.8456588</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1.8646726999999998</v>
       </c>
+      <c r="AF10" s="10">
+        <v>1.0154826958105649</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>1.429872495446266</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>1.6575591985428051</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>1.807832422586521</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>1.980874316939891</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>2.0218579234972678</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>2.085610200364298</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>2.1311475409836058</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>2.204007285974499</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>2.204007285974499</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="5">
         <v>0.54903037723237669</v>
@@ -1731,73 +2068,106 @@
       <c r="J11" s="9">
         <v>1.0942409931274004</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="2">
+        <v>0.70286833304754004</v>
+      </c>
+      <c r="L11" s="10">
         <v>1.0974499089253189</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>1.3342440801457189</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>1.5346083788706739</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>1.7122040072859741</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>1.734972677595628</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>1.812386156648452</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>1.853369763205829</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>1.9125683060109291</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>1.9535519125683061</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>1.9990892531876141</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>0.75731799999999994</v>
       </c>
-      <c r="V11" s="11">
+      <c r="W11" s="11">
         <v>0.9557443000000001</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>1.0533013</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>1.1110755999999999</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>1.1486901</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>1.1746559999999999</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>1.1933501</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>1.207265</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>1.2179164</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>1.2262683999999999</v>
       </c>
+      <c r="AF11" s="10">
+        <v>0.66484517304189439</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>0.84699453551912562</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>1.0519125683060111</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>1.033697632058288</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>1.1429872495446269</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>1.202185792349727</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>1.270491803278688</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>1.256830601092896</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>1.3205828779599269</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>1.3342440801457189</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C12" s="5">
         <v>0.75130272494477268</v>
@@ -1823,73 +2193,106 @@
       <c r="J12" s="9">
         <v>0.65049366155502431</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="2">
+        <v>0.52186620986857968</v>
+      </c>
+      <c r="L12" s="10">
         <v>0.61930783242258647</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>0.8606557377049181</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>1.174863387978142</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>1.288706739526412</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>1.429872495446266</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>1.525500910746812</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>1.51183970856102</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>1.6165755919854281</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>1.648451730418943</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>1.6302367941712199</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>0.79253850000000003</v>
       </c>
-      <c r="V12" s="11">
+      <c r="W12" s="11">
         <v>1.0869686000000001</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1.2487207</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1.3498158999999998</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1.4179284000000001</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1.4662621</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1.5019103</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1.5290016</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1.5500879000000001</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1.5668242999999999</v>
       </c>
+      <c r="AF12" s="10">
+        <v>0.52367941712204014</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>0.74681238615664847</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>0.9289617486338797</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>1.10200364298725</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>1.1794171220400731</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>1.256830601092896</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>1.302367941712204</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>1.288706739526412</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>1.343351548269581</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>1.411657559198543</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="5">
         <v>0.34347545528986684</v>
@@ -1915,73 +2318,106 @@
       <c r="J13" s="9">
         <v>0.77732434170090292</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="2">
+        <v>0.61798902293321756</v>
+      </c>
+      <c r="L13" s="10">
         <v>0.8378870673952642</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>1.0245901639344259</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>1.124772313296903</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>1.2659380692167581</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>1.293260473588342</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>1.325136612021858</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>1.379781420765027</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>1.4025500910746811</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>1.4071038251366119</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>1.3934426229508201</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>0.80226399999999998</v>
       </c>
-      <c r="V13" s="11">
+      <c r="W13" s="11">
         <v>1.0749481000000001</v>
       </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
         <v>1.2189467</v>
       </c>
-      <c r="X13" s="3">
+      <c r="Y13" s="3">
         <v>1.3087724999999999</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Z13" s="3">
         <v>1.3700135</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <v>1.4140921</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
         <v>1.4469977999999999</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AC13" s="3">
         <v>1.4722297</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>1.4919897999999998</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>1.5077381000000001</v>
       </c>
+      <c r="AF13" s="10">
+        <v>0.64207650273224037</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>0.93351548269581064</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>0.98816029143897999</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>1.033697632058288</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>1.0655737704918029</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>1.0382513661202191</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>1.1065573770491799</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>1.070127504553734</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>1.1065573770491799</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C14" s="5">
         <v>0.51771745727702267</v>
@@ -2007,73 +2443,106 @@
       <c r="J14" s="9">
         <v>0.49117023590278514</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="2">
+        <v>0.38789583095393498</v>
+      </c>
+      <c r="L14" s="10">
         <v>0.42805100182149358</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>0.65573770491803274</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>0.7969034608378871</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <v>0.86520947176684881</v>
       </c>
-      <c r="O14" s="10">
+      <c r="P14" s="10">
         <v>0.93351548269581064</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.9699453551912568</v>
       </c>
       <c r="Q14" s="10">
         <v>0.9699453551912568</v>
       </c>
       <c r="R14" s="10">
+        <v>0.9699453551912568</v>
+      </c>
+      <c r="S14" s="10">
         <v>0.97449908925318773</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>1.0109289617486339</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>1.0154826958105649</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>0.58175699999999997</v>
       </c>
-      <c r="V14" s="11">
+      <c r="W14" s="11">
         <v>0.89319660000000001</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1.0986925000000001</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1.2467527</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1.3590422</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1.447308</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1.5186157</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1.5775005000000002</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1.6270104999999999</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1.6692701000000001</v>
       </c>
+      <c r="AF14" s="10">
+        <v>0.33242258652094719</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>0.50091074681238612</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>0.65573770491803274</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>0.66484517304189439</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0.71948998178506374</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>0.72859744990892528</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>0.74681238615664847</v>
+      </c>
+      <c r="AN14" s="10">
+        <v>0.75591985428051001</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>0.77868852459016402</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C15" s="5">
         <v>0.48629801272799322</v>
@@ -2099,73 +2568,106 @@
       <c r="J15" s="9">
         <v>0.81141560206847485</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="2">
+        <v>0.86739288069737286</v>
+      </c>
+      <c r="L15" s="10">
         <v>0.70582877959927148</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>1.070127504553734</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>1.3069216757741351</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>1.4617486338797809</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10">
         <v>1.539162112932605</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>1.680327868852459</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>1.7167577413479049</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>1.725865209471767</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>1.762295081967213</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>1.7850637522768671</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>0.77228779999999997</v>
       </c>
-      <c r="V15" s="11">
+      <c r="W15" s="11">
         <v>1.0798918</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1.2560503000000001</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1.3703407000000001</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1.449813</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1.5077083</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>1.5513837000000001</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>1.585264</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>1.6121597000000001</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>1.6339309</v>
       </c>
+      <c r="AF15" s="10">
+        <v>0.76502732240437155</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>1.1338797814207651</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>1.416211293260474</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>1.6029143897996361</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>1.7030965391621129</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>1.7987249544626589</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>1.857923497267759</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>1.921675774134791</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>1.903460837887067</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>1.9626593806921679</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C16" s="5">
         <v>0.60122213554170112</v>
@@ -2191,73 +2693,106 @@
       <c r="J16" s="9">
         <v>1.334697564472954</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="2">
+        <v>1.1555715942525748</v>
+      </c>
+      <c r="L16" s="10">
         <v>1.211293260473588</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>1.807832422586521</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>2.1675774134790529</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <v>2.3816029143897999</v>
       </c>
-      <c r="O16" s="10">
+      <c r="P16" s="10">
         <v>2.5591985428050998</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>2.6457194899817851</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>2.7914389799635702</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>2.8142076502732238</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>2.932604735883424</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <v>2.9189435336976319</v>
       </c>
-      <c r="U16" s="3">
+      <c r="V16" s="3">
         <v>1.5416044</v>
       </c>
-      <c r="V16" s="11">
+      <c r="W16" s="11">
         <v>2.1273349000000001</v>
       </c>
-      <c r="W16" s="3">
+      <c r="X16" s="3">
         <v>2.4507245000000002</v>
       </c>
-      <c r="X16" s="3">
+      <c r="Y16" s="3">
         <v>2.6515137000000002</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Z16" s="3">
         <v>2.7852110999999997</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <v>2.8789368</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="3">
         <v>2.9474159000000002</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AC16" s="3">
         <v>2.9992068000000001</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>3.0395411000000001</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AE16" s="3">
         <v>3.0717491999999997</v>
       </c>
+      <c r="AF16" s="10">
+        <v>1.1384335154826959</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>1.6029143897996361</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>1.8306010928961749</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>2.1539162112932599</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>2.204007285974499</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>2.272313296903461</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>2.4134790528233152</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>2.4635701275045538</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>2.5591985428050998</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>2.577413479052824</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="C17" s="5">
         <v>0.38758117652607871</v>
@@ -2283,73 +2818,106 @@
       <c r="J17" s="9">
         <v>0.45815101926127666</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="2">
+        <v>0.63888833934399369</v>
+      </c>
+      <c r="L17" s="10">
         <v>0.34153005464480868</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>0.52367941712204014</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>0.64207650273224037</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <v>0.70582877959927148</v>
       </c>
-      <c r="O17" s="10">
+      <c r="P17" s="10">
         <v>0.75591985428051001</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.79234972677595628</v>
       </c>
       <c r="Q17" s="10">
         <v>0.79234972677595628</v>
       </c>
       <c r="R17" s="10">
+        <v>0.79234972677595628</v>
+      </c>
+      <c r="S17" s="10">
         <v>0.80145719489981782</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <v>0.80601092896174853</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>0.75016340000000004</v>
       </c>
-      <c r="V17" s="11">
+      <c r="W17" s="11">
         <v>1.0521261</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1.2181234000000001</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1.3221623999999998</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1.3927353</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1.4433068</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1.4810534</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1.5101301</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1.5330964</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1.5516095000000001</v>
       </c>
+      <c r="AF17" s="10">
+        <v>0.54189435336976322</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>0.80601092896174853</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>0.92440801457194899</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>1.0564663023679419</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>1.0655737704918029</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>1.1429872495446269</v>
+      </c>
+      <c r="AL17" s="10">
+        <v>1.1520947176684879</v>
+      </c>
+      <c r="AM17" s="10">
+        <v>1.156648451730419</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>1.1794171220400731</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>1.170309653916211</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C18" s="5">
         <v>0.71127750016045488</v>
@@ -2375,73 +2943,106 @@
       <c r="J18" s="9">
         <v>0.55181306830720656</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="2">
+        <v>0.50082145789804944</v>
+      </c>
+      <c r="L18" s="10">
         <v>0.51001821493624777</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>0.78324225865209463</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="10">
         <v>0.96539162112932608</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <v>1.1657559198542811</v>
       </c>
-      <c r="O18" s="10">
+      <c r="P18" s="10">
         <v>1.174863387978142</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>1.2795992714025499</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="10">
         <v>1.3069216757741351</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <v>1.416211293260474</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="10">
         <v>1.466302367941712</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <v>1.5163934426229511</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>0.51674520000000002</v>
       </c>
-      <c r="V18" s="11">
+      <c r="W18" s="11">
         <v>0.70051339999999995</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>0.79684490000000008</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>0.85517920000000003</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>0.89358309999999996</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>0.92035320000000009</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>0.93982929999999998</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>0.95448519999999992</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>0.9658218999999999</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>0.97479470000000001</v>
       </c>
+      <c r="AF18" s="10">
+        <v>0.48724954462659392</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>0.70582877959927148</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>1.0245901639344259</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>1.0974499089253189</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>1.2249544626593809</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>1.2750455373406191</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>1.3069216757741351</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>1.3342440801457189</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>1.384335154826958</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>0.53315501896890949</v>
@@ -2467,73 +3068,106 @@
       <c r="J19" s="9">
         <v>0.75249311797305973</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="2">
+        <v>0.40555603312744071</v>
+      </c>
+      <c r="L19" s="10">
         <v>0.7741347905282332</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>1.0154826958105649</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>1.211293260473588</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>1.325136612021858</v>
       </c>
-      <c r="O19" s="10">
+      <c r="P19" s="10">
         <v>1.466302367941712</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>1.584699453551913</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="R19" s="10">
         <v>1.5710382513661201</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>1.653005464480874</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <v>1.584699453551913</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <v>1.6621129326047359</v>
       </c>
-      <c r="U19" s="3">
+      <c r="V19" s="3">
         <v>0.66380170000000005</v>
       </c>
-      <c r="V19" s="11">
+      <c r="W19" s="11">
         <v>1.0631972999999999</v>
       </c>
-      <c r="W19" s="3">
+      <c r="X19" s="3">
         <v>1.3378177999999998</v>
       </c>
-      <c r="X19" s="3">
+      <c r="Y19" s="3">
         <v>1.5410412</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Z19" s="3">
         <v>1.6990569</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <v>1.8264052</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AB19" s="3">
         <v>1.9318311000000001</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AC19" s="3">
         <v>2.0209254999999997</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>2.0974456999999997</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AE19" s="3">
         <v>2.1640247000000001</v>
       </c>
+      <c r="AF19" s="10">
+        <v>0.42805100182149358</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>0.57832422586520948</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>0.70582877959927148</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>0.80145719489981782</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>0.883424408014572</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>0.86976320582877964</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>0.92440801457194899</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>0.90163934426229519</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>0.94262295081967218</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>0.95173041894353361</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>0.62895211460794465</v>
@@ -2559,73 +3193,106 @@
       <c r="J20" s="9">
         <v>1.4924708334824732</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="2">
+        <v>1.176730333544765</v>
+      </c>
+      <c r="L20" s="10">
         <v>1.243169398907104</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>1.8397085610200361</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>2.2085610200364298</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <v>2.445355191256831</v>
       </c>
-      <c r="O20" s="10">
+      <c r="P20" s="10">
         <v>2.554644808743169</v>
       </c>
-      <c r="P20" s="10">
+      <c r="Q20" s="10">
         <v>2.768670309653916</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="R20" s="10">
         <v>2.8324225865209471</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <v>2.9508196721311482</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="10">
         <v>3.051001821493625</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <v>3.078324225865209</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1.1616187</v>
       </c>
-      <c r="V20" s="11">
+      <c r="W20" s="11">
         <v>1.5395222</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1.7409754</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1.8642551999999999</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1.9458278999999998</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2.0027724999999998</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2.0441541999999999</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2.0751946000000001</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2.0990862999999997</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2.1178745999999999</v>
       </c>
+      <c r="AF20" s="10">
+        <v>1.074681238615665</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>1.5346083788706739</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>1.8397085610200361</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>1.980874316939891</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>2.094717668488161</v>
+      </c>
+      <c r="AK20" s="10">
+        <v>2.1539162112932599</v>
+      </c>
+      <c r="AL20" s="10">
+        <v>2.340619307832422</v>
+      </c>
+      <c r="AM20" s="10">
+        <v>2.4089253187613839</v>
+      </c>
+      <c r="AN20" s="10">
+        <v>2.422586520947176</v>
+      </c>
+      <c r="AO20" s="10">
+        <v>2.4362477231329689</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C21" s="5">
         <v>0.45576034259462223</v>
@@ -2651,73 +3318,106 @@
       <c r="J21" s="9">
         <v>1.0862327229909625</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="2">
+        <v>0.44799231989540589</v>
+      </c>
+      <c r="L21" s="10">
         <v>1.042805100182149</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>1.4617486338797809</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>1.639344262295082</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <v>1.8260473588342441</v>
       </c>
-      <c r="O21" s="10">
+      <c r="P21" s="10">
         <v>1.889799635701275</v>
       </c>
-      <c r="P21" s="10">
+      <c r="Q21" s="10">
         <v>1.9581056466302369</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="R21" s="10">
         <v>2.0537340619307831</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>2.0992714025500909</v>
-      </c>
-      <c r="S21" s="10">
-        <v>2.108378870673953</v>
       </c>
       <c r="T21" s="10">
         <v>2.108378870673953</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="10">
+        <v>2.108378870673953</v>
+      </c>
+      <c r="V21" s="3">
         <v>0.44599660000000002</v>
       </c>
-      <c r="V21" s="11">
+      <c r="W21" s="11">
         <v>0.58920439999999996</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>0.66296560000000004</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>0.70800680000000005</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>0.73798859999999999</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>0.75907689999999994</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>0.77453329999999998</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>0.78624909999999992</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>0.79538739999999997</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>0.80269369999999995</v>
       </c>
+      <c r="AF21" s="10">
+        <v>0.42805100182149358</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>0.62386156648451729</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>0.70127504553734066</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>0.79234972677595628</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0.77868852459016402</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>0.82877959927140266</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>0.8378870673952642</v>
+      </c>
+      <c r="AM21" s="10">
+        <v>0.86976320582877964</v>
+      </c>
+      <c r="AN21" s="10">
+        <v>0.87431693989071035</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>0.86976320582877964</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C22" s="5">
         <v>0.42558107581349164</v>
@@ -2743,73 +3443,106 @@
       <c r="J22" s="9">
         <v>0.86343937258519621</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="2">
+        <v>0.94327747853845045</v>
+      </c>
+      <c r="L22" s="10">
         <v>0.81511839708561018</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>1.0655737704918029</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
         <v>1.2386156648451729</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <v>1.3524590163934429</v>
       </c>
-      <c r="O22" s="10">
+      <c r="P22" s="10">
         <v>1.466302367941712</v>
       </c>
-      <c r="P22" s="10">
+      <c r="Q22" s="10">
         <v>1.425318761384335</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>1.543715846994536</v>
       </c>
       <c r="R22" s="10">
         <v>1.543715846994536</v>
       </c>
       <c r="S22" s="10">
-        <v>1.5801457194899819</v>
+        <v>1.543715846994536</v>
       </c>
       <c r="T22" s="10">
         <v>1.5801457194899819</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="10">
+        <v>1.5801457194899819</v>
+      </c>
+      <c r="V22" s="3">
         <v>1.0164601</v>
       </c>
-      <c r="V22" s="11">
+      <c r="W22" s="11">
         <v>1.3297043</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1.4832014</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1.5726157000000001</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1.6295561000000001</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1.6679486000000001</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1.6949463000000002</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1.7145756000000001</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1.7292478</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1.7404756000000001</v>
       </c>
+      <c r="AF22" s="10">
+        <v>0.91530054644808745</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>1.156648451730419</v>
+      </c>
+      <c r="AH22" s="10">
+        <v>1.284153005464481</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>1.4936247723132969</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>1.557377049180328</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>1.598360655737705</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>1.671220400728598</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>1.6757741347905279</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>1.7122040072859741</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C23" s="5">
         <v>0.5086728097257478</v>
@@ -2835,73 +3568,106 @@
       <c r="J23" s="9">
         <v>1.4378463855640244</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="2">
+        <v>1.436987664082221</v>
+      </c>
+      <c r="L23" s="10">
         <v>1.256830601092896</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>1.989981785063752</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>2.2814207650273222</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <v>2.540983606557377</v>
       </c>
-      <c r="O23" s="10">
+      <c r="P23" s="10">
         <v>2.6912568306010929</v>
       </c>
-      <c r="P23" s="10">
+      <c r="Q23" s="10">
         <v>2.8005464480874318</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <v>2.9371584699453548</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <v>3.0145719489981779</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <v>3.0373406193078321</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <v>3.0965391621129328</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1.7180819999999999</v>
       </c>
-      <c r="V23" s="11">
+      <c r="W23" s="11">
         <v>2.3008216000000004</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2.6078787000000001</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2.7953095000000001</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2.9193859</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3.0061036999999997</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3.0692003999999997</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3.1165981999999999</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3.1531568000000001</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3.1819977000000002</v>
       </c>
+      <c r="AF23" s="10">
+        <v>1.284153005464481</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>2.0127504553734061</v>
+      </c>
+      <c r="AH23" s="10">
+        <v>2.3087431693989071</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>2.5182149362477229</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>2.6684881602914392</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>2.8961748633879778</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>2.9417122040072861</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>2.9872495446265939</v>
+      </c>
+      <c r="AN23" s="10">
+        <v>3.02367941712204</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>3.078324225865209</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C24" s="5">
         <v>0.7179139941885202</v>
@@ -2927,73 +3693,106 @@
       <c r="J24" s="9">
         <v>0.58941075179454416</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="2">
+        <v>0.39714671721714384</v>
+      </c>
+      <c r="L24" s="10">
         <v>0.53734061930783239</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>0.84244080145719491</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>1.042805100182149</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <v>1.170309653916211</v>
       </c>
-      <c r="O24" s="10">
+      <c r="P24" s="10">
         <v>1.2340619307832419</v>
       </c>
-      <c r="P24" s="10">
+      <c r="Q24" s="10">
         <v>1.3888888888888891</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="R24" s="10">
         <v>1.425318761384335</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>1.498178506375228</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>1.51183970856102</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <v>1.5300546448087431</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>0.2950817</v>
       </c>
-      <c r="V24" s="11">
+      <c r="W24" s="11">
         <v>0.39283360000000001</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>0.44430759999999997</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>0.47468099999999996</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>0.49379050000000002</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>0.50641879999999995</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>0.5151192</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>0.52133479999999999</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>0.52591809999999994</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>0.52939210000000003</v>
       </c>
+      <c r="AF24" s="10">
+        <v>0.34153005464480868</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>0.51001821493624777</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>0.65118397085610202</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>0.77868852459016402</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0.82422586520947172</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>0.883424408014572</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>0.94717668488160289</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>0.91985428051001816</v>
+      </c>
+      <c r="AN24" s="10">
+        <v>0.95173041894353361</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>0.97449908925318773</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C25" s="5">
         <v>0.60662538593925042</v>
@@ -3019,73 +3818,106 @@
       <c r="J25" s="9">
         <v>0.88260430087264452</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="2">
+        <v>0.79037757236742567</v>
+      </c>
+      <c r="L25" s="10">
         <v>0.91985428051001816</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>1.3160291438979961</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>1.593806921675774</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <v>1.7850637522768671</v>
       </c>
-      <c r="O25" s="10">
+      <c r="P25" s="10">
         <v>1.894353369763206</v>
       </c>
-      <c r="P25" s="10">
+      <c r="Q25" s="10">
         <v>2.0537340619307831</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <v>2.067395264116576</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>2.163023679417122</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <v>2.2267759562841531</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <v>2.2176684881602911</v>
       </c>
-      <c r="U25" s="3">
+      <c r="V25" s="3">
         <v>0.40633550000000002</v>
       </c>
-      <c r="V25" s="11">
+      <c r="W25" s="11">
         <v>0.56256659999999992</v>
       </c>
-      <c r="W25" s="3">
+      <c r="X25" s="3">
         <v>0.65245629999999999</v>
       </c>
-      <c r="X25" s="3">
+      <c r="Y25" s="3">
         <v>0.71020720000000004</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Z25" s="3">
         <v>0.74972470000000002</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AA25" s="3">
         <v>0.77804650000000009</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AB25" s="3">
         <v>0.79913039999999991</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AC25" s="3">
         <v>0.81534810000000002</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>0.82818340000000001</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AE25" s="3">
         <v>0.83859689999999998</v>
       </c>
+      <c r="AF25" s="10">
+        <v>0.78324225865209463</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>1.211293260473588</v>
+      </c>
+      <c r="AH25" s="10">
+        <v>1.438979963570127</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>1.6438979963570131</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>1.725865209471767</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>1.794171220400729</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>1.894353369763206</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>1.9535519125683061</v>
+      </c>
+      <c r="AN25" s="10">
+        <v>1.967213114754099</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>1.967213114754099</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C26" s="5">
         <v>0.4514019674805696</v>
@@ -3111,73 +3943,106 @@
       <c r="J26" s="9">
         <v>0.49624701610103572</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="2">
+        <v>0.50357385827749912</v>
+      </c>
+      <c r="L26" s="10">
         <v>0.44626593806921683</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="10">
         <v>0.69216757741347901</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <v>0.9289617486338797</v>
       </c>
-      <c r="O26" s="10">
+      <c r="P26" s="10">
         <v>0.96539162112932608</v>
       </c>
-      <c r="P26" s="10">
+      <c r="Q26" s="10">
         <v>1.0063752276867031</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <v>1.042805100182149</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <v>1.074681238615665</v>
-      </c>
-      <c r="S26" s="10">
-        <v>1.1065573770491799</v>
       </c>
       <c r="T26" s="10">
         <v>1.1065573770491799</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="10">
+        <v>1.1065573770491799</v>
+      </c>
+      <c r="V26" s="3">
         <v>0.62834590000000001</v>
       </c>
-      <c r="V26" s="11">
+      <c r="W26" s="11">
         <v>0.87560720000000003</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1.013396</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1.0997608000000001</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1.1575709000000001</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1.1980713999999999</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1.2274677000000001</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1.2494387</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1.2662777000000001</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1.2794702999999998</v>
       </c>
+      <c r="AF26" s="10">
+        <v>0.45537340619307842</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>0.69216757741347901</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>0.81056466302367947</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.96083788706739526</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>0.98360655737704927</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>0.9699453551912568</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>1.0974499089253189</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>1.0974499089253189</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>1.1429872495446269</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>1.1475409836065571</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="5">
         <v>0.35214820057661717</v>
@@ -3203,73 +4068,106 @@
       <c r="J27" s="9">
         <v>0.55948560321104301</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="2">
+        <v>0.46504045511807973</v>
+      </c>
+      <c r="L27" s="10">
         <v>0.4189435336976321</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <v>0.62841530054644812</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>0.69672131147540983</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <v>0.75136612021857918</v>
       </c>
-      <c r="O27" s="10">
+      <c r="P27" s="10">
         <v>0.81056466302367947</v>
       </c>
-      <c r="P27" s="10">
+      <c r="Q27" s="10">
         <v>0.86520947176684881</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>0.87431693989071035</v>
       </c>
       <c r="R27" s="10">
         <v>0.87431693989071035</v>
       </c>
       <c r="S27" s="10">
-        <v>0.9061930783242258</v>
+        <v>0.87431693989071035</v>
       </c>
       <c r="T27" s="10">
         <v>0.9061930783242258</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="10">
+        <v>0.9061930783242258</v>
+      </c>
+      <c r="V27" s="3">
         <v>0.52428809999999992</v>
       </c>
-      <c r="V27" s="11">
+      <c r="W27" s="11">
         <v>0.67156819999999995</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>0.7478648</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>0.79516220000000004</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>0.82767259999999998</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>0.8515801999999999</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>0.86999769999999998</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>0.88466389999999995</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>0.89663150000000003</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>0.90657919999999992</v>
       </c>
+      <c r="AF27" s="10">
+        <v>0.35974499089253192</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>0.51912568306010931</v>
+      </c>
+      <c r="AH27" s="10">
+        <v>0.56921675774134783</v>
+      </c>
+      <c r="AI27" s="10">
+        <v>0.66029143897996356</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>0.7103825136612022</v>
+      </c>
+      <c r="AK27" s="10">
+        <v>0.70127504553734066</v>
+      </c>
+      <c r="AL27" s="10">
+        <v>0.71948998178506374</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>0.77868852459016402</v>
+      </c>
+      <c r="AN27" s="10">
+        <v>0.76958105646630237</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>0.77868852459016402</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C28" s="5">
         <v>0.52219321267692276</v>
@@ -3295,73 +4193,106 @@
       <c r="J28" s="9">
         <v>0.65601470561208008</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="2">
+        <v>0.58736554958082865</v>
+      </c>
+      <c r="L28" s="10">
         <v>0.71493624772313291</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="10">
         <v>0.94717668488160289</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>1.115664845173042</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <v>1.284153005464481</v>
       </c>
-      <c r="O28" s="10">
+      <c r="P28" s="10">
         <v>1.370673952641166</v>
       </c>
-      <c r="P28" s="10">
+      <c r="Q28" s="10">
         <v>1.4071038251366119</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <v>1.4435336976320581</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <v>1.4480874316939889</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <v>1.4845173041894359</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <v>1.5209471766848821</v>
       </c>
-      <c r="U28" s="3">
+      <c r="V28" s="3">
         <v>0.76817000000000002</v>
       </c>
-      <c r="V28" s="11">
+      <c r="W28" s="11">
         <v>0.98616859999999995</v>
       </c>
-      <c r="W28" s="3">
+      <c r="X28" s="3">
         <v>1.0966829</v>
       </c>
-      <c r="X28" s="3">
+      <c r="Y28" s="3">
         <v>1.1617720999999999</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Z28" s="3">
         <v>1.2032792000000001</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AA28" s="3">
         <v>1.2311869</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AB28" s="3">
         <v>1.2507140999999999</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AC28" s="3">
         <v>1.2648226</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>1.2752924999999999</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AE28" s="3">
         <v>1.2832407000000001</v>
       </c>
+      <c r="AF28" s="10">
+        <v>0.65118397085610202</v>
+      </c>
+      <c r="AG28" s="10">
+        <v>0.91985428051001816</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>1.033697632058288</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>1.120218579234973</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>1.197632058287796</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>1.2613843351548271</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>1.2750455373406191</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>1.3342440801457189</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>1.33879781420765</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>1.3524590163934429</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C29" s="5">
         <v>0.65411354773664365</v>
@@ -3387,73 +4318,106 @@
       <c r="J29" s="9">
         <v>0.76915890190917524</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="2">
+        <v>0.72739961529214059</v>
+      </c>
+      <c r="L29" s="10">
         <v>0.69216757741347901</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>1.1839708561020039</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>1.416211293260474</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>1.539162112932605</v>
       </c>
-      <c r="O29" s="10">
+      <c r="P29" s="10">
         <v>1.680327868852459</v>
       </c>
-      <c r="P29" s="10">
+      <c r="Q29" s="10">
         <v>1.7850637522768671</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>1.8761384335154829</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <v>1.8715846994535521</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="10">
         <v>1.9171220400728599</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
         <v>1.967213114754099</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>0.7260219</v>
       </c>
-      <c r="V29" s="11">
+      <c r="W29" s="11">
         <v>0.94210000000000005</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1.0532707000000001</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1.1196737000000001</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1.162922</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1.1928453000000001</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1.2145119</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>1.2307659</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>1.2433091999999999</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1.2532146</v>
       </c>
+      <c r="AF29" s="10">
+        <v>0.7331511839708561</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>1.0473588342440801</v>
+      </c>
+      <c r="AH29" s="10">
+        <v>1.256830601092896</v>
+      </c>
+      <c r="AI29" s="10">
+        <v>1.4754098360655741</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>1.5892531876138429</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>1.68488160291439</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>1.7440801457194901</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>1.762295081967213</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>1.8260473588342441</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>1.857923497267759</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C30" s="5">
         <v>0.35640397228894599</v>
@@ -3479,73 +4443,106 @@
       <c r="J30" s="9">
         <v>0.71700369149008158</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="2">
+        <v>0.61224503068058111</v>
+      </c>
+      <c r="L30" s="10">
         <v>0.7741347905282332</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>1.0063752276867031</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>1.1885245901639341</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <v>1.3342440801457189</v>
       </c>
-      <c r="O30" s="10">
+      <c r="P30" s="10">
         <v>1.420765027322404</v>
       </c>
-      <c r="P30" s="10">
+      <c r="Q30" s="10">
         <v>1.4435336976320581</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <v>1.4936247723132969</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>1.566484517304189</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>1.5801457194899819</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
         <v>1.6074681238615669</v>
       </c>
-      <c r="U30" s="3">
+      <c r="V30" s="3">
         <v>0.43531200000000003</v>
       </c>
-      <c r="V30" s="11">
+      <c r="W30" s="11">
         <v>0.60487570000000002</v>
       </c>
-      <c r="W30" s="3">
+      <c r="X30" s="3">
         <v>0.70141399999999998</v>
       </c>
-      <c r="X30" s="3">
+      <c r="Y30" s="3">
         <v>0.76308940000000003</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Z30" s="3">
         <v>0.80501869999999998</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="AA30" s="3">
         <v>0.83477570000000012</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AB30" s="3">
         <v>0.85661969999999998</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AC30" s="3">
         <v>0.87311839999999996</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD30" s="3">
         <v>0.88589459999999998</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AE30" s="3">
         <v>0.89600970000000002</v>
       </c>
+      <c r="AF30" s="10">
+        <v>0.59198542805100185</v>
+      </c>
+      <c r="AG30" s="10">
+        <v>0.87431693989071035</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>0.98816029143897999</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>1.16120218579235</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>1.202185792349727</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>1.2795992714025499</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>1.229508196721312</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>1.284153005464481</v>
+      </c>
+      <c r="AN30" s="10">
+        <v>1.325136612021858</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>1.311475409836065</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C31" s="5">
         <v>0.53178291271376521</v>
@@ -3571,73 +4568,106 @@
       <c r="J31" s="9">
         <v>0.91985986641074435</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="2">
+        <v>0.95188678189917864</v>
+      </c>
+      <c r="L31" s="10">
         <v>0.74681238615664847</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>1.124772313296903</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="10">
         <v>1.329690346083789</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <v>1.543715846994536</v>
       </c>
-      <c r="O31" s="10">
+      <c r="P31" s="10">
         <v>1.680327868852459</v>
       </c>
-      <c r="P31" s="10">
+      <c r="Q31" s="10">
         <v>1.648451730418943</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <v>1.794171220400729</v>
       </c>
-      <c r="R31" s="10">
+      <c r="S31" s="10">
         <v>1.8442622950819669</v>
       </c>
-      <c r="S31" s="10">
+      <c r="T31" s="10">
         <v>1.903460837887067</v>
       </c>
-      <c r="T31" s="10">
+      <c r="U31" s="10">
         <v>1.8852459016393439</v>
       </c>
-      <c r="U31" s="3">
+      <c r="V31" s="3">
         <v>0.82237019999999994</v>
       </c>
-      <c r="V31" s="11">
+      <c r="W31" s="11">
         <v>1.1391039999999999</v>
       </c>
-      <c r="W31" s="3">
+      <c r="X31" s="3">
         <v>1.319617</v>
       </c>
-      <c r="X31" s="3">
+      <c r="Y31" s="3">
         <v>1.4355196000000001</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Z31" s="3">
         <v>1.5146760000000001</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="AA31" s="3">
         <v>1.571037</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AB31" s="3">
         <v>1.6124891999999997</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AC31" s="3">
         <v>1.6438136999999999</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AD31" s="3">
         <v>1.6680477999999999</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AE31" s="3">
         <v>1.6871893999999998</v>
       </c>
+      <c r="AF31" s="10">
+        <v>0.76958105646630237</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>1.124772313296903</v>
+      </c>
+      <c r="AH31" s="10">
+        <v>1.411657559198543</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>1.634790528233151</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>1.7395264116575591</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>1.794171220400729</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>1.812386156648452</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>1.9171220400728599</v>
+      </c>
+      <c r="AN31" s="10">
+        <v>1.9626593806921679</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>1.939890710382514</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C32" s="5">
         <v>0.64740637121366995</v>
@@ -3663,73 +4693,106 @@
       <c r="J32" s="9">
         <v>0.74447506778401706</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="2">
+        <v>0.61096721596535974</v>
+      </c>
+      <c r="L32" s="10">
         <v>0.67395264116575593</v>
       </c>
-      <c r="L32" s="10">
+      <c r="M32" s="10">
         <v>0.91985428051001816</v>
       </c>
-      <c r="M32" s="10">
+      <c r="N32" s="10">
         <v>1.16120218579235</v>
       </c>
-      <c r="N32" s="10">
+      <c r="O32" s="10">
         <v>1.293260473588342</v>
       </c>
-      <c r="O32" s="10">
+      <c r="P32" s="10">
         <v>1.39799635701275</v>
       </c>
-      <c r="P32" s="10">
+      <c r="Q32" s="10">
         <v>1.4845173041894359</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10">
         <v>1.525500910746812</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <v>1.5209471766848821</v>
       </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10">
         <v>1.5801457194899819</v>
       </c>
-      <c r="T32" s="10">
+      <c r="U32" s="10">
         <v>1.648451730418943</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>0.69770849999999995</v>
       </c>
-      <c r="V32" s="11">
+      <c r="W32" s="11">
         <v>0.95591040000000005</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1.093712</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1.1786699</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1.2357102</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1.2763137</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1.3064925000000001</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1.329682</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1.3479780000000001</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1.3627264000000001</v>
       </c>
+      <c r="AF32" s="10">
+        <v>0.56010928961748641</v>
+      </c>
+      <c r="AG32" s="10">
+        <v>0.75591985428051001</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>0.97449908925318773</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>1.042805100182149</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>1.088342440801457</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>1.2204007285974501</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>1.2613843351548271</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>1.2613843351548271</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>1.3205828779599269</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>1.3342440801457189</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C33" s="5">
         <v>0.55167437061362179</v>
@@ -3755,73 +4818,106 @@
       <c r="J33" s="9">
         <v>0.68080852284562388</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="2">
+        <v>0.86479634107214098</v>
+      </c>
+      <c r="L33" s="10">
         <v>0.71493624772313291</v>
       </c>
-      <c r="L33" s="10">
+      <c r="M33" s="10">
         <v>1.0063752276867031</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>1.10200364298725</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>1.202185792349727</v>
       </c>
-      <c r="O33" s="10">
+      <c r="P33" s="10">
         <v>1.284153005464481</v>
       </c>
-      <c r="P33" s="10">
+      <c r="Q33" s="10">
         <v>1.370673952641166</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>1.3888888888888891</v>
       </c>
-      <c r="R33" s="10">
+      <c r="S33" s="10">
         <v>1.425318761384335</v>
       </c>
-      <c r="S33" s="10">
+      <c r="T33" s="10">
         <v>1.479963570127504</v>
       </c>
-      <c r="T33" s="10">
+      <c r="U33" s="10">
         <v>1.4936247723132969</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1.2591616999999999</v>
       </c>
-      <c r="V33" s="11">
+      <c r="W33" s="11">
         <v>1.6995019999999998</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1.9409007999999999</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2.0953379999999999</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2.2028477</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2.2818767000000002</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2.3422402</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2.3896877000000001</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2.4278293</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2.4590540999999999</v>
       </c>
+      <c r="AF33" s="10">
+        <v>0.86976320582877964</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>1.129326047358834</v>
+      </c>
+      <c r="AH33" s="10">
+        <v>1.4344262295081971</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>1.5801457194899819</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>1.6438979963570131</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>1.68488160291439</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>1.7440801457194901</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>1.7987249544626589</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>1.8351548269581059</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>1.853369763205829</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C34" s="5">
         <v>0.65744824354836406</v>
@@ -3847,73 +4943,106 @@
       <c r="J34" s="9">
         <v>1.1196927632063343</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="2">
+        <v>0.74743071358794055</v>
+      </c>
+      <c r="L34" s="10">
         <v>0.97905282331511834</v>
       </c>
-      <c r="L34" s="10">
+      <c r="M34" s="10">
         <v>1.4754098360655741</v>
       </c>
-      <c r="M34" s="10">
+      <c r="N34" s="10">
         <v>1.7304189435336981</v>
       </c>
-      <c r="N34" s="10">
+      <c r="O34" s="10">
         <v>1.86247723132969</v>
       </c>
-      <c r="O34" s="10">
+      <c r="P34" s="10">
         <v>2.094717668488161</v>
       </c>
-      <c r="P34" s="10">
+      <c r="Q34" s="10">
         <v>2.190346083788707</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>2.2768670309653909</v>
       </c>
-      <c r="R34" s="10">
+      <c r="S34" s="10">
         <v>2.3132969034608379</v>
       </c>
-      <c r="S34" s="10">
+      <c r="T34" s="10">
         <v>2.3724954462659378</v>
       </c>
-      <c r="T34" s="10">
+      <c r="U34" s="10">
         <v>2.377049180327869</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>0.6154636</v>
       </c>
-      <c r="V34" s="11">
+      <c r="W34" s="11">
         <v>0.76284320000000005</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>0.83212149999999996</v>
       </c>
-      <c r="X34" s="3">
+      <c r="Y34" s="3">
         <v>0.8716045</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Z34" s="3">
         <v>0.89664969999999999</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="AA34" s="3">
         <v>0.91370949999999995</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AB34" s="3">
         <v>0.92596619999999996</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AC34" s="3">
         <v>0.93515570000000003</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>0.94229199999999991</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AE34" s="3">
         <v>0.9479993000000001</v>
       </c>
+      <c r="AF34" s="10">
+        <v>0.71493624772313291</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0.99726775956284153</v>
+      </c>
+      <c r="AH34" s="10">
+        <v>1.120218579234973</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>1.329690346083789</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>1.3570127504553731</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>1.4617486338797809</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>1.5209471766848821</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>1.552823315118397</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>1.6120218579234971</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>1.6074681238615669</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C35" s="5">
         <v>0.53460523354694001</v>
@@ -3939,73 +5068,106 @@
       <c r="J35" s="9">
         <v>2.0654412691957487</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="2">
+        <v>1.1884522026006139</v>
+      </c>
+      <c r="L35" s="10">
         <v>1.7304189435336981</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="10">
         <v>2.3816029143897999</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="10">
         <v>2.7777777777777781</v>
       </c>
-      <c r="N35" s="10">
+      <c r="O35" s="10">
         <v>3.0737704918032791</v>
       </c>
-      <c r="O35" s="10">
+      <c r="P35" s="10">
         <v>3.2695810564663019</v>
       </c>
-      <c r="P35" s="10">
+      <c r="Q35" s="10">
         <v>3.3788706739526408</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>3.5245901639344259</v>
       </c>
-      <c r="R35" s="10">
+      <c r="S35" s="10">
         <v>3.6748633879781418</v>
       </c>
-      <c r="S35" s="10">
+      <c r="T35" s="10">
         <v>3.670309653916211</v>
       </c>
-      <c r="T35" s="10">
+      <c r="U35" s="10">
         <v>3.6930783242258651</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1.2122214</v>
       </c>
-      <c r="V35" s="11">
+      <c r="W35" s="11">
         <v>1.5015117</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1.647602</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1.7345770999999999</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1.7913701</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1.8308260000000001</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1.8595127</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1.8811173000000001</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1.897853</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1.9111183999999999</v>
       </c>
+      <c r="AF35" s="10">
+        <v>1.0564663023679419</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>1.33879781420765</v>
+      </c>
+      <c r="AH35" s="10">
+        <v>1.6074681238615669</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>1.7896174863387979</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>1.9307832422586519</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>2.0446265938069219</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>2.0765027322404368</v>
+      </c>
+      <c r="AM35" s="10">
+        <v>2.1220400728597451</v>
+      </c>
+      <c r="AN35" s="10">
+        <v>2.135701275045538</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>2.1448087431693992</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C36" s="5">
         <v>0.4534705154974546</v>
@@ -4031,73 +5193,106 @@
       <c r="J36" s="9">
         <v>5.3326818795174189</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="2">
+        <v>4.7764770669748824</v>
+      </c>
+      <c r="L36" s="10">
         <v>5.0136612021857916</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>6.343351548269581</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>7.3588342440801453</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <v>7.7276867030965386</v>
       </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
         <v>8.1420765027322393</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="10">
         <v>8.4653916211293261</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>8.7295081967213104</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>8.7431693989071047</v>
       </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10">
         <v>8.94808743169399</v>
       </c>
-      <c r="T36" s="10">
+      <c r="U36" s="10">
         <v>9.1029143897996345</v>
       </c>
-      <c r="U36" s="3">
+      <c r="V36" s="3">
         <v>4.7668219000000001</v>
       </c>
-      <c r="V36" s="11">
+      <c r="W36" s="11">
         <v>5.9159496999999996</v>
       </c>
-      <c r="W36" s="3">
+      <c r="X36" s="3">
         <v>6.4786237999999994</v>
       </c>
-      <c r="X36" s="3">
+      <c r="Y36" s="3">
         <v>6.8102983000000004</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Z36" s="3">
         <v>7.0266340999999999</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="AA36" s="3">
         <v>7.1776328999999999</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AB36" s="3">
         <v>7.2883505</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AC36" s="3">
         <v>7.3726198000000007</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AD36" s="3">
         <v>7.4386466000000002</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AE36" s="3">
         <v>7.4915835</v>
       </c>
+      <c r="AF36" s="10">
+        <v>4.1848816029143903</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>5.564663023679417</v>
+      </c>
+      <c r="AH36" s="10">
+        <v>6.3661202185792352</v>
+      </c>
+      <c r="AI36" s="10">
+        <v>6.9489981785063746</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>7.3360655737704921</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>7.4681238615664851</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="AM36" s="10">
+        <v>7.823315118397085</v>
+      </c>
+      <c r="AN36" s="10">
+        <v>8.0418943533697629</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>8.0601092896174862</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C37" s="5">
         <v>0.4772721104395965</v>
@@ -4123,73 +5318,106 @@
       <c r="J37" s="9">
         <v>0.6737680908222935</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="2">
+        <v>0.57963133075920492</v>
+      </c>
+      <c r="L37" s="10">
         <v>0.6466302367941712</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>0.883424408014572</v>
       </c>
-      <c r="M37" s="10">
+      <c r="N37" s="10">
         <v>0.97905282331511834</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <v>1.115664845173042</v>
       </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
         <v>1.1930783242258649</v>
       </c>
-      <c r="P37" s="10">
+      <c r="Q37" s="10">
         <v>1.2340619307832419</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>1.2795992714025499</v>
       </c>
-      <c r="R37" s="10">
+      <c r="S37" s="10">
         <v>1.3342440801457189</v>
       </c>
-      <c r="S37" s="10">
+      <c r="T37" s="10">
         <v>1.3160291438979961</v>
       </c>
-      <c r="T37" s="10">
+      <c r="U37" s="10">
         <v>1.3615664845173041</v>
       </c>
-      <c r="U37" s="3">
+      <c r="V37" s="3">
         <v>0.74164570000000007</v>
       </c>
-      <c r="V37" s="11">
+      <c r="W37" s="11">
         <v>1.0996406000000001</v>
       </c>
-      <c r="W37" s="3">
+      <c r="X37" s="3">
         <v>1.3175383000000001</v>
       </c>
-      <c r="X37" s="3">
+      <c r="Y37" s="3">
         <v>1.4648231</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Z37" s="3">
         <v>1.5706376000000002</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="AA37" s="3">
         <v>1.6498912000000001</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AB37" s="3">
         <v>1.7111432999999998</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AC37" s="3">
         <v>1.7596854</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AD37" s="3">
         <v>1.7989629</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AE37" s="3">
         <v>1.8313080999999998</v>
       </c>
+      <c r="AF37" s="10">
+        <v>0.51001821493624777</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0.7331511839708561</v>
+      </c>
+      <c r="AH37" s="10">
+        <v>0.81056466302367947</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>0.92440801457194899</v>
+      </c>
+      <c r="AJ37" s="10">
+        <v>0.97449908925318773</v>
+      </c>
+      <c r="AK37" s="10">
+        <v>1.0655737704918029</v>
+      </c>
+      <c r="AL37" s="10">
+        <v>1.074681238615665</v>
+      </c>
+      <c r="AM37" s="10">
+        <v>1.0974499089253189</v>
+      </c>
+      <c r="AN37" s="10">
+        <v>1.1475409836065571</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>1.1520947176684879</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="5">
         <v>0.37302937313988938</v>
@@ -4215,73 +5443,106 @@
       <c r="J38" s="9">
         <v>1.892941930489116</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="2">
+        <v>1.5850125507324593</v>
+      </c>
+      <c r="L38" s="10">
         <v>1.7850637522768671</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>2.1311475409836058</v>
       </c>
-      <c r="M38" s="10">
+      <c r="N38" s="10">
         <v>2.2404371584699461</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <v>2.404371584699454</v>
       </c>
-      <c r="O38" s="10">
+      <c r="P38" s="10">
         <v>2.363387978142077</v>
       </c>
-      <c r="P38" s="10">
+      <c r="Q38" s="10">
         <v>2.486338797814208</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="R38" s="10">
         <v>2.568306010928961</v>
       </c>
-      <c r="R38" s="10">
+      <c r="S38" s="10">
         <v>2.6047358834244081</v>
       </c>
-      <c r="S38" s="10">
+      <c r="T38" s="10">
         <v>2.6138433515482702</v>
       </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
         <v>2.6411657559198538</v>
       </c>
-      <c r="U38" s="3">
+      <c r="V38" s="3">
         <v>1.5458342</v>
       </c>
-      <c r="V38" s="11">
+      <c r="W38" s="11">
         <v>1.8813426000000002</v>
       </c>
-      <c r="W38" s="3">
+      <c r="X38" s="3">
         <v>2.0439263999999997</v>
       </c>
-      <c r="X38" s="3">
+      <c r="Y38" s="3">
         <v>2.1378512999999999</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Z38" s="3">
         <v>2.1972563000000003</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="AA38" s="3">
         <v>2.2371544000000001</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AB38" s="3">
         <v>2.2651810000000001</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AC38" s="3">
         <v>2.2855850000000002</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AD38" s="3">
         <v>2.3008850999999999</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AE38" s="3">
         <v>2.3126476</v>
       </c>
+      <c r="AF38" s="10">
+        <v>1.479963570127504</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>1.7122040072859741</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>1.857923497267759</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>2.0081967213114749</v>
+      </c>
+      <c r="AJ38" s="10">
+        <v>2.0582877959927139</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>2.108378870673953</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>2.135701275045538</v>
+      </c>
+      <c r="AM38" s="10">
+        <v>2.1721311475409841</v>
+      </c>
+      <c r="AN38" s="10">
+        <v>2.2222222222222219</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>2.2085610200364298</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="5">
         <v>0.65017193184725619</v>
@@ -4307,73 +5568,106 @@
       <c r="J39" s="9">
         <v>1.3768571689515663</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="2">
+        <v>0.79769711261117904</v>
+      </c>
+      <c r="L39" s="10">
         <v>1.2204007285974501</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <v>1.86247723132969</v>
       </c>
-      <c r="M39" s="10">
+      <c r="N39" s="10">
         <v>2.14936247723133</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <v>2.445355191256831</v>
       </c>
-      <c r="O39" s="10">
+      <c r="P39" s="10">
         <v>2.5091074681238621</v>
       </c>
-      <c r="P39" s="10">
+      <c r="Q39" s="10">
         <v>2.7094717668488162</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <v>2.8051001821493631</v>
       </c>
-      <c r="R39" s="10">
+      <c r="S39" s="10">
         <v>2.8779599271402549</v>
       </c>
-      <c r="S39" s="10">
+      <c r="T39" s="10">
         <v>2.9918032786885251</v>
       </c>
-      <c r="T39" s="10">
+      <c r="U39" s="10">
         <v>3.0145719489981779</v>
       </c>
-      <c r="U39" s="3">
+      <c r="V39" s="3">
         <v>0.64160850000000003</v>
       </c>
-      <c r="V39" s="11">
+      <c r="W39" s="11">
         <v>0.7527412</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>0.80474750000000006</v>
       </c>
-      <c r="X39" s="3">
+      <c r="Y39" s="3">
         <v>0.83520459999999996</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Z39" s="3">
         <v>0.8552356000000001</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="AA39" s="3">
         <v>0.86944699999999997</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
         <v>0.8800903000000001</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AC39" s="3">
         <v>0.88838879999999998</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AD39" s="3">
         <v>0.89506059999999998</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="3">
         <v>0.90055359999999995</v>
       </c>
+      <c r="AF39" s="10">
+        <v>0.70582877959927148</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>1.033697632058288</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>1.1475409836065571</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>1.3615664845173041</v>
+      </c>
+      <c r="AJ39" s="10">
+        <v>1.425318761384335</v>
+      </c>
+      <c r="AK39" s="10">
+        <v>1.5346083788706739</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>1.6120218579234971</v>
+      </c>
+      <c r="AM39" s="10">
+        <v>1.653005464480874</v>
+      </c>
+      <c r="AN39" s="10">
+        <v>1.725865209471767</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>1.7577413479052819</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C40" s="5">
         <v>0.41912810229952857</v>
@@ -4399,73 +5693,106 @@
       <c r="J40" s="9">
         <v>1.4728171731316919</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="2">
+        <v>1.15759538647463</v>
+      </c>
+      <c r="L40" s="10">
         <v>1.51183970856102</v>
       </c>
-      <c r="L40" s="10">
+      <c r="M40" s="10">
         <v>2.094717668488161</v>
       </c>
-      <c r="M40" s="10">
+      <c r="N40" s="10">
         <v>2.4271402550091068</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <v>2.6775956284153009</v>
       </c>
-      <c r="O40" s="10">
+      <c r="P40" s="10">
         <v>2.809653916211293</v>
       </c>
-      <c r="P40" s="10">
+      <c r="Q40" s="10">
         <v>2.932604735883424</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="R40" s="10">
         <v>2.9872495446265939</v>
       </c>
-      <c r="R40" s="10">
+      <c r="S40" s="10">
         <v>3.091985428051002</v>
       </c>
-      <c r="S40" s="10">
+      <c r="T40" s="10">
         <v>3.0601092896174862</v>
       </c>
-      <c r="T40" s="10">
+      <c r="U40" s="10">
         <v>3.142076502732241</v>
       </c>
-      <c r="U40" s="3">
+      <c r="V40" s="3">
         <v>0.95163699999999996</v>
       </c>
-      <c r="V40" s="11">
+      <c r="W40" s="11">
         <v>1.2873429000000001</v>
       </c>
-      <c r="W40" s="3">
+      <c r="X40" s="3">
         <v>1.4697172999999999</v>
       </c>
-      <c r="X40" s="3">
+      <c r="Y40" s="3">
         <v>1.5826548</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Z40" s="3">
         <v>1.6578124000000001</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="AA40" s="3">
         <v>1.7104096999999998</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AB40" s="3">
         <v>1.7486890000000002</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AC40" s="3">
         <v>1.7774621000000002</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AD40" s="3">
         <v>1.7996930000000002</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="3">
         <v>1.8172834999999998</v>
       </c>
+      <c r="AF40" s="10">
+        <v>1.0974499089253189</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>1.5482695810564659</v>
+      </c>
+      <c r="AH40" s="10">
+        <v>1.7896174863387979</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>2.017304189435337</v>
+      </c>
+      <c r="AJ40" s="10">
+        <v>2.0992714025500909</v>
+      </c>
+      <c r="AK40" s="10">
+        <v>2.1812386156648449</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>2.1994535519125682</v>
+      </c>
+      <c r="AM40" s="10">
+        <v>2.2677595628415301</v>
+      </c>
+      <c r="AN40" s="10">
+        <v>2.3087431693989071</v>
+      </c>
+      <c r="AO40" s="10">
+        <v>2.3224043715847</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C41" s="5">
         <v>0.73007912213772508</v>
@@ -4491,73 +5818,106 @@
       <c r="J41" s="9">
         <v>1.3902733472413225</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="2">
+        <v>1.2230775517926999</v>
+      </c>
+      <c r="L41" s="10">
         <v>1.1930783242258649</v>
       </c>
-      <c r="L41" s="10">
+      <c r="M41" s="10">
         <v>1.9262295081967209</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>2.3907103825136611</v>
       </c>
-      <c r="N41" s="10">
+      <c r="O41" s="10">
         <v>2.755009107468124</v>
       </c>
-      <c r="O41" s="10">
+      <c r="P41" s="10">
         <v>2.9735883424408009</v>
       </c>
-      <c r="P41" s="10">
+      <c r="Q41" s="10">
         <v>3.183060109289618</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>3.37431693989071</v>
       </c>
-      <c r="R41" s="10">
+      <c r="S41" s="10">
         <v>3.574681238615665</v>
       </c>
-      <c r="S41" s="10">
+      <c r="T41" s="10">
         <v>3.6202185792349719</v>
       </c>
-      <c r="T41" s="10">
+      <c r="U41" s="10">
         <v>3.734061930783243</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1.2614238</v>
       </c>
-      <c r="V41" s="11">
+      <c r="W41" s="11">
         <v>1.7495094999999998</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2.0117667999999997</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2.1707578999999999</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2.2750412</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2.3475716000000002</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2.4003975</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2.4403340999999998</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2.4714651999999999</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2.4963546000000001</v>
       </c>
+      <c r="AF41" s="10">
+        <v>0.96539162112932608</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>1.7122040072859741</v>
+      </c>
+      <c r="AH41" s="10">
+        <v>2.1220400728597451</v>
+      </c>
+      <c r="AI41" s="10">
+        <v>2.445355191256831</v>
+      </c>
+      <c r="AJ41" s="10">
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="AK41" s="10">
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="AL41" s="10">
+        <v>2.996357012750456</v>
+      </c>
+      <c r="AM41" s="10">
+        <v>3.064663023679417</v>
+      </c>
+      <c r="AN41" s="10">
+        <v>3.1967213114754101</v>
+      </c>
+      <c r="AO41" s="10">
+        <v>3.2103825136612021</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="5">
         <v>0.5779268768017729</v>
@@ -4583,73 +5943,106 @@
       <c r="J42" s="9">
         <v>2.9491522370899288</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="2">
+        <v>2.543940087533318</v>
+      </c>
+      <c r="L42" s="10">
         <v>2.3315118397085608</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="10">
         <v>3.6065573770491808</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>4.1666666666666661</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <v>4.785974499089253</v>
       </c>
-      <c r="O42" s="10">
+      <c r="P42" s="10">
         <v>5.2276867030965386</v>
       </c>
-      <c r="P42" s="10">
+      <c r="Q42" s="10">
         <v>5.4007285974499091</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="R42" s="10">
         <v>5.6056466302367944</v>
       </c>
-      <c r="R42" s="10">
+      <c r="S42" s="10">
         <v>5.7103825136612034</v>
       </c>
-      <c r="S42" s="10">
+      <c r="T42" s="10">
         <v>5.8196721311475406</v>
       </c>
-      <c r="T42" s="10">
+      <c r="U42" s="10">
         <v>5.9061930783242262</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2.8280703000000003</v>
       </c>
-      <c r="V42" s="11">
+      <c r="W42" s="11">
         <v>3.7089938000000005</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4.1834635000000002</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4.4790817000000001</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4.6786395000000001</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4.8209526</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4.9267316000000001</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5.0079735000000003</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5.0720530999999998</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>5.1237193000000003</v>
       </c>
+      <c r="AF42" s="10">
+        <v>2.1220400728597451</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>3.0737704918032791</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>3.561020036429873</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>4.0892531876138438</v>
+      </c>
+      <c r="AJ42" s="10">
+        <v>4.3624772313296898</v>
+      </c>
+      <c r="AK42" s="10">
+        <v>4.5081967213114753</v>
+      </c>
+      <c r="AL42" s="10">
+        <v>4.731329690346084</v>
+      </c>
+      <c r="AM42" s="10">
+        <v>4.9134790528233152</v>
+      </c>
+      <c r="AN42" s="10">
+        <v>5</v>
+      </c>
+      <c r="AO42" s="10">
+        <v>5.0728597449908923</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C43" s="5">
         <v>0.57457162138077877</v>
@@ -4675,73 +6068,106 @@
       <c r="J43" s="9">
         <v>0.78083806146754553</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="2">
+        <v>0.72765622517523254</v>
+      </c>
+      <c r="L43" s="10">
         <v>0.7331511839708561</v>
       </c>
-      <c r="L43" s="10">
+      <c r="M43" s="10">
         <v>1.0519125683060111</v>
       </c>
-      <c r="M43" s="10">
+      <c r="N43" s="10">
         <v>1.3205828779599269</v>
       </c>
-      <c r="N43" s="10">
+      <c r="O43" s="10">
         <v>1.525500910746812</v>
       </c>
-      <c r="O43" s="10">
+      <c r="P43" s="10">
         <v>1.598360655737705</v>
       </c>
-      <c r="P43" s="10">
+      <c r="Q43" s="10">
         <v>1.666666666666667</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="R43" s="10">
         <v>1.7440801457194901</v>
       </c>
-      <c r="R43" s="10">
+      <c r="S43" s="10">
         <v>1.812386156648452</v>
       </c>
-      <c r="S43" s="10">
+      <c r="T43" s="10">
         <v>1.8670309653916211</v>
       </c>
-      <c r="T43" s="10">
+      <c r="U43" s="10">
         <v>1.921675774134791</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>0.89463999999999999</v>
       </c>
-      <c r="V43" s="11">
+      <c r="W43" s="11">
         <v>1.3423543</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1.6183976999999998</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1.8065910000000001</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1.9429670999999999</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2.0460256000000001</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2.1263722</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2.1905608000000001</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2.2428683</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2.2862044000000004</v>
       </c>
+      <c r="AF43" s="10">
+        <v>0.65118397085610202</v>
+      </c>
+      <c r="AG43" s="10">
+        <v>0.92440801457194899</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>1.206739526411658</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>1.420765027322404</v>
+      </c>
+      <c r="AJ43" s="10">
+        <v>1.5027322404371579</v>
+      </c>
+      <c r="AK43" s="10">
+        <v>1.5801457194899819</v>
+      </c>
+      <c r="AL43" s="10">
+        <v>1.671220400728598</v>
+      </c>
+      <c r="AM43" s="10">
+        <v>1.693989071038251</v>
+      </c>
+      <c r="AN43" s="10">
+        <v>1.7577413479052819</v>
+      </c>
+      <c r="AO43" s="10">
+        <v>1.766848816029144</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="5">
         <v>0.38687708484318289</v>
@@ -4767,73 +6193,106 @@
       <c r="J44" s="9">
         <v>1.1900377680154375</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="2">
+        <v>1.320610356098834</v>
+      </c>
+      <c r="L44" s="10">
         <v>1.247723132969035</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <v>1.420765027322404</v>
       </c>
-      <c r="M44" s="10">
+      <c r="N44" s="10">
         <v>1.653005464480874</v>
       </c>
-      <c r="N44" s="10">
+      <c r="O44" s="10">
         <v>1.721311475409836</v>
       </c>
-      <c r="O44" s="10">
+      <c r="P44" s="10">
         <v>1.8989071038251371</v>
       </c>
-      <c r="P44" s="10">
+      <c r="Q44" s="10">
         <v>1.948998178506375</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10">
         <v>2.017304189435337</v>
       </c>
-      <c r="R44" s="10">
+      <c r="S44" s="10">
         <v>2.0081967213114749</v>
       </c>
-      <c r="S44" s="10">
+      <c r="T44" s="10">
         <v>2.0127504553734061</v>
       </c>
-      <c r="T44" s="10">
+      <c r="U44" s="10">
         <v>2.030965391621129</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1.7506567</v>
       </c>
-      <c r="V44" s="11">
+      <c r="W44" s="11">
         <v>2.3479988999999999</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2.6595569999999999</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2.8484582999999999</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2.9730639000000001</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3.0599523999999998</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3.1230210999999999</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3.1702307999999997</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3.2064514000000002</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3.2348138999999998</v>
       </c>
+      <c r="AF44" s="10">
+        <v>1.384335154826958</v>
+      </c>
+      <c r="AG44" s="10">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AH44" s="10">
+        <v>1.921675774134791</v>
+      </c>
+      <c r="AI44" s="10">
+        <v>2.0400728597449911</v>
+      </c>
+      <c r="AJ44" s="10">
+        <v>2.1448087431693992</v>
+      </c>
+      <c r="AK44" s="10">
+        <v>2.1675774134790529</v>
+      </c>
+      <c r="AL44" s="10">
+        <v>2.2495446265938068</v>
+      </c>
+      <c r="AM44" s="10">
+        <v>2.272313296903461</v>
+      </c>
+      <c r="AN44" s="10">
+        <v>2.3132969034608379</v>
+      </c>
+      <c r="AO44" s="10">
+        <v>2.3132969034608379</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C45" s="5">
         <v>0.53157435712573886</v>
@@ -4859,73 +6318,106 @@
       <c r="J45" s="9">
         <v>1.1493682608954294</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="2">
+        <v>0.64541262138069422</v>
+      </c>
+      <c r="L45" s="10">
         <v>1.0154826958105649</v>
       </c>
-      <c r="L45" s="10">
+      <c r="M45" s="10">
         <v>1.311475409836065</v>
       </c>
-      <c r="M45" s="10">
+      <c r="N45" s="10">
         <v>1.639344262295082</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <v>1.903460837887067</v>
       </c>
-      <c r="O45" s="10">
+      <c r="P45" s="10">
         <v>1.9717668488160289</v>
-      </c>
-      <c r="P45" s="10">
-        <v>2.1174863387978138</v>
       </c>
       <c r="Q45" s="10">
         <v>2.1174863387978138</v>
       </c>
       <c r="R45" s="10">
+        <v>2.1174863387978138</v>
+      </c>
+      <c r="S45" s="10">
         <v>2.2131147540983611</v>
       </c>
-      <c r="S45" s="10">
+      <c r="T45" s="10">
         <v>2.1812386156648449</v>
       </c>
-      <c r="T45" s="10">
+      <c r="U45" s="10">
         <v>2.3087431693989071</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>0.46565110000000004</v>
       </c>
-      <c r="V45" s="11">
+      <c r="W45" s="11">
         <v>0.65575620000000001</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>0.7638509</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>0.83342039999999995</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>0.88173769999999996</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>0.91714399999999996</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>0.94414770000000003</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>0.96538769999999996</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>0.98250609999999994</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>0.99657670000000009</v>
       </c>
+      <c r="AF45" s="10">
+        <v>0.6056466302367941</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>0.7741347905282332</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>0.9927140255009107</v>
+      </c>
+      <c r="AI45" s="10">
+        <v>1.0473588342440801</v>
+      </c>
+      <c r="AJ45" s="10">
+        <v>1.129326047358834</v>
+      </c>
+      <c r="AK45" s="10">
+        <v>1.174863387978142</v>
+      </c>
+      <c r="AL45" s="10">
+        <v>1.2386156648451729</v>
+      </c>
+      <c r="AM45" s="10">
+        <v>1.2659380692167581</v>
+      </c>
+      <c r="AN45" s="10">
+        <v>1.2613843351548271</v>
+      </c>
+      <c r="AO45" s="10">
+        <v>1.302367941712204</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C46" s="5">
         <v>0.49723474177218613</v>
@@ -4951,68 +6443,105 @@
       <c r="J46" s="9">
         <v>2.4297580710527069</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="2">
+        <v>3.4562380983325749</v>
+      </c>
+      <c r="L46" s="10">
         <v>2.1584699453551912</v>
       </c>
-      <c r="L46" s="10">
+      <c r="M46" s="10">
         <v>3.1375227686703102</v>
       </c>
-      <c r="M46" s="10">
+      <c r="N46" s="10">
         <v>3.7613843351548271</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <v>4.1074681238615662</v>
       </c>
-      <c r="O46" s="10">
+      <c r="P46" s="10">
         <v>4.2987249544626591</v>
       </c>
-      <c r="P46" s="10">
+      <c r="Q46" s="10">
         <v>4.5537340619307827</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="R46" s="10">
         <v>4.6857923497267757</v>
       </c>
-      <c r="R46" s="10">
+      <c r="S46" s="10">
         <v>4.8315118397085612</v>
       </c>
-      <c r="S46" s="10">
+      <c r="T46" s="10">
         <v>4.918032786885246</v>
       </c>
-      <c r="T46" s="10">
+      <c r="U46" s="10">
         <v>4.9635701275045543</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3.1062631999999999</v>
       </c>
-      <c r="V46" s="11">
+      <c r="W46" s="11">
         <v>4.0844170999999996</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4.5854694</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4.8870317999999999</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5.0851822999999996</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5.2232120000000002</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5.3236230999999998</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5.3992132000000002</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5.4577333999999995</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5.5041087000000006</v>
+      </c>
+      <c r="AF46" s="10">
+        <v>3.0373406193078321</v>
+      </c>
+      <c r="AG46" s="10">
+        <v>4.4626593806921671</v>
+      </c>
+      <c r="AH46" s="10">
+        <v>5.2459016393442619</v>
+      </c>
+      <c r="AI46" s="10">
+        <v>5.8970856102003646</v>
+      </c>
+      <c r="AJ46" s="10">
+        <v>6.1794171220400731</v>
+      </c>
+      <c r="AK46" s="10">
+        <v>6.4708561020036433</v>
+      </c>
+      <c r="AL46" s="10">
+        <v>6.6074681238615662</v>
+      </c>
+      <c r="AM46" s="10">
+        <v>6.8306010928961758</v>
+      </c>
+      <c r="AN46" s="10">
+        <v>7.0218579234972687</v>
+      </c>
+      <c r="AO46" s="10">
+        <v>7.0264116575591986</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>